--- a/curation/draft/collection/collection_specialization_EC.xlsx
+++ b/curation/draft/collection/collection_specialization_EC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B9B09-4707-43C3-B106-57429A716C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C79ED-B6C3-E747-A503-E7A00DC41DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EC" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>C48524</t>
   </si>
   <si>
-    <t>Number of 25-cm2 patches prescribed/day</t>
-  </si>
-  <si>
     <t>Study Drug</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>LZZT - 360i PoC 50cm2</t>
   </si>
   <si>
-    <t>Number of 50-cm2 patches prescribed/day</t>
-  </si>
-  <si>
     <t>ECDOSE</t>
   </si>
   <si>
@@ -434,6 +428,12 @@
   </si>
   <si>
     <t>C117479</t>
+  </si>
+  <si>
+    <t>Number of 25cm2 patches prescribed/day</t>
+  </si>
+  <si>
+    <t>Number of 50cm2 patches prescribed/day</t>
   </si>
 </sst>
 </file>
@@ -848,32 +848,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="5"/>
+    <col min="8" max="8" width="38.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" customWidth="1"/>
     <col min="25" max="25" width="22" style="3" customWidth="1"/>
-    <col min="26" max="26" width="30.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="30.5" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="28" max="28" width="16.5" customWidth="1"/>
     <col min="31" max="31" width="26" customWidth="1"/>
     <col min="32" max="32" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>111</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
         <v>90</v>
@@ -1894,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1941,22 +1941,22 @@
         <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
         <v>134</v>
       </c>
-      <c r="M19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" t="s">
-        <v>136</v>
-      </c>
       <c r="P19" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -1965,19 +1965,19 @@
         <v>38</v>
       </c>
       <c r="S19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="AD19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
         <v>90</v>
@@ -2045,7 +2045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
         <v>90</v>
@@ -2116,7 +2116,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
         <v>90</v>
@@ -2187,7 +2187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
         <v>90</v>
@@ -2258,7 +2258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>126</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
         <v>90</v>
@@ -2317,7 +2317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>126</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
         <v>90</v>
@@ -2379,7 +2379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
         <v>90</v>
@@ -2435,7 +2435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>126</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
         <v>90</v>
@@ -2491,7 +2491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
         <v>90</v>
@@ -2526,7 +2526,7 @@
         <v>43</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -2573,22 +2573,22 @@
         <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
         <v>90</v>
       </c>
       <c r="L29" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" t="s">
         <v>134</v>
       </c>
-      <c r="M29" t="s">
-        <v>134</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="P29" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -2597,19 +2597,19 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="AD29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s">
         <v>90</v>
@@ -2677,7 +2677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>127</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
         <v>90</v>
@@ -2748,7 +2748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
         <v>90</v>
@@ -2819,7 +2819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>127</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
         <v>90</v>
@@ -2890,7 +2890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
         <v>90</v>
@@ -2949,7 +2949,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>127</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s">
         <v>90</v>
@@ -3011,7 +3011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
         <v>90</v>
@@ -3067,7 +3067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>127</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
         <v>90</v>

--- a/curation/draft/collection/collection_specialization_EC.xlsx
+++ b/curation/draft/collection/collection_specialization_EC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C79ED-B6C3-E747-A503-E7A00DC41DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413A9B6-0D01-9541-BD4D-E0C1EDCB5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Collection_EC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EC!$A$1:$AG$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EC!$A$1:$AH$37</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="140">
   <si>
     <t>package_date</t>
   </si>
@@ -148,9 +148,6 @@
     <t>EXPOSCOLL</t>
   </si>
   <si>
-    <t>Exposure as Collected Name of Treatment</t>
-  </si>
-  <si>
     <t>ECTRT</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>EXPOSCOLL_XANOMELINEPLACEBO</t>
   </si>
   <si>
-    <t>Exposure as Collected Xanomeline (LY246708) or Placebo</t>
-  </si>
-  <si>
     <t>Xanomeline (LY246708) or Placebo</t>
   </si>
   <si>
@@ -403,24 +397,12 @@
     <t>ECROUTE = TRANSDERMAL</t>
   </si>
   <si>
-    <t>EXPOSCOLL_XANOMELINEPLACEBO25</t>
-  </si>
-  <si>
-    <t>EXPOSCOLL_XANOMELINEPLACEBO50</t>
-  </si>
-  <si>
     <t>C48524</t>
   </si>
   <si>
     <t>Study Drug</t>
   </si>
   <si>
-    <t>LZZT - 360i PoC 25cm2</t>
-  </si>
-  <si>
-    <t>LZZT - 360i PoC 50cm2</t>
-  </si>
-  <si>
     <t>ECDOSE</t>
   </si>
   <si>
@@ -434,6 +416,33 @@
   </si>
   <si>
     <t>Number of 50cm2 patches prescribed/day</t>
+  </si>
+  <si>
+    <t>Patch 25cm2</t>
+  </si>
+  <si>
+    <t>Patch 50cm2</t>
+  </si>
+  <si>
+    <t>EXPOSCOLL_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>Denormalized</t>
+  </si>
+  <si>
+    <t>EXPOSCOLL_XANOMELINEPLACEBO25_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>EXPOSCOLL_XANOMELINEPLACEBO50_DENORMALIZED</t>
+  </si>
+  <si>
+    <t>Exposure as Collected Name of Treatment (Denormalized)</t>
+  </si>
+  <si>
+    <t>Exposure as Collected Xanomeline (LY246708) or Placebo (Denormalized)</t>
+  </si>
+  <si>
+    <t>categories</t>
   </si>
 </sst>
 </file>
@@ -846,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,21 +868,22 @@
     <col min="5" max="5" width="8.83203125" style="5"/>
     <col min="8" max="8" width="38.1640625" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" customWidth="1"/>
-    <col min="12" max="12" width="26.5" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="31.1640625" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="25" max="25" width="22" style="3" customWidth="1"/>
-    <col min="26" max="26" width="30.5" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
-    <col min="28" max="28" width="16.5" customWidth="1"/>
-    <col min="31" max="31" width="26" customWidth="1"/>
-    <col min="32" max="32" width="23" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" customWidth="1"/>
+    <col min="13" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22" style="3" customWidth="1"/>
+    <col min="27" max="27" width="30.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="32" max="32" width="26" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,192 +915,195 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="P2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>110</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AE3" t="s">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="AF3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AD3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1098,52 +1111,55 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>38</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>34</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>200</v>
       </c>
-      <c r="AD4" t="s">
-        <v>42</v>
-      </c>
       <c r="AE4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1151,52 +1167,55 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
       </c>
       <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
         <v>47</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>200</v>
       </c>
-      <c r="AD5" t="s">
-        <v>45</v>
-      </c>
       <c r="AE5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1204,49 +1223,52 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
       </c>
       <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="AE6" t="s">
         <v>48</v>
       </c>
-      <c r="S6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6">
-        <v>100</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1254,61 +1276,64 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
       </c>
       <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
         <v>51</v>
       </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
-        <v>48</v>
-      </c>
       <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>35</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>51</v>
+      <c r="AB7" t="s">
+        <v>114</v>
       </c>
       <c r="AE7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1316,52 +1341,55 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I8" t="s">
+        <v>134</v>
       </c>
       <c r="L8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" t="s">
+      <c r="AF8" t="s">
         <v>53</v>
       </c>
-      <c r="N8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1369,52 +1397,55 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
       </c>
       <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" t="s">
         <v>58</v>
       </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" t="s">
         <v>59</v>
       </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9">
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="AD9" t="s">
-        <v>54</v>
-      </c>
       <c r="AE9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1422,52 +1453,55 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
       </c>
       <c r="L10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="s">
         <v>61</v>
       </c>
-      <c r="M10" t="s">
+      <c r="AF10" t="s">
         <v>61</v>
       </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1475,52 +1509,55 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
       </c>
       <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
         <v>65</v>
       </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8</v>
       </c>
-      <c r="R11" t="s">
-        <v>48</v>
-      </c>
       <c r="S11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11">
+        <v>47</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="AD11" t="s">
-        <v>62</v>
-      </c>
       <c r="AE11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1528,49 +1565,52 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
       </c>
       <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
         <v>67</v>
       </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="AE12" t="s">
         <v>68</v>
       </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-      <c r="R12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12">
-        <v>100</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1578,58 +1618,61 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
       </c>
       <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
         <v>70</v>
       </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>71</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13">
+        <v>200</v>
+      </c>
+      <c r="X13" t="s">
         <v>72</v>
       </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13">
-        <v>200</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>73</v>
       </c>
-      <c r="X13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>70</v>
-      </c>
       <c r="AE13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1637,58 +1680,61 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
       </c>
       <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>76</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <v>200</v>
+      </c>
+      <c r="X14" t="s">
         <v>77</v>
       </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-      <c r="R14" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14">
-        <v>200</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>78</v>
       </c>
-      <c r="X14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>75</v>
-      </c>
       <c r="AE14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1696,58 +1742,61 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
       </c>
       <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>81</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15">
+        <v>200</v>
+      </c>
+      <c r="X15" t="s">
         <v>82</v>
       </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15">
-        <v>200</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>83</v>
       </c>
-      <c r="X15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>80</v>
-      </c>
       <c r="AE15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1755,61 +1804,64 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
       </c>
       <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" t="s">
         <v>85</v>
       </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16">
+      <c r="R16">
         <v>13</v>
       </c>
-      <c r="R16" t="s">
-        <v>48</v>
-      </c>
       <c r="S16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" t="s">
         <v>34</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>35</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>36</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>85</v>
+      <c r="AB16" t="s">
+        <v>114</v>
       </c>
       <c r="AE16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1817,1319 +1869,1442 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
       </c>
       <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" t="s">
         <v>87</v>
       </c>
-      <c r="M17" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17">
+      <c r="R17">
         <v>14</v>
       </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
       <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>200</v>
       </c>
-      <c r="AD17" t="s">
-        <v>87</v>
-      </c>
       <c r="AE17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18">
+        <v>360</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18">
+        <v>200</v>
+      </c>
+      <c r="W18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18">
-        <v>200</v>
-      </c>
-      <c r="V18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>42</v>
-      </c>
       <c r="AE18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19">
+        <v>360</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
         <v>126</v>
       </c>
-      <c r="J19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M19" t="s">
-        <v>132</v>
-      </c>
       <c r="N19" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19">
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>38</v>
       </c>
-      <c r="S19" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19">
+      <c r="T19" t="s">
+        <v>127</v>
+      </c>
+      <c r="U19">
         <v>2</v>
       </c>
-      <c r="AD19" t="s">
-        <v>132</v>
-      </c>
       <c r="AE19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K20">
+        <v>360</v>
       </c>
       <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="M20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
         <v>71</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
         <v>72</v>
       </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20">
-        <v>200</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="Y20" t="s">
         <v>73</v>
       </c>
-      <c r="X20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>99</v>
-      </c>
       <c r="AC20" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AD20" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="AE20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I21" t="s">
+        <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K21">
+        <v>360</v>
       </c>
       <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" t="s">
         <v>94</v>
       </c>
-      <c r="M21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21">
+        <v>200</v>
+      </c>
+      <c r="W21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s">
         <v>95</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Y21" t="s">
         <v>96</v>
       </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21">
-        <v>200</v>
-      </c>
-      <c r="V21" t="s">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="AC21" t="s">
         <v>97</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AD21" t="s">
         <v>98</v>
       </c>
-      <c r="AB21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>94</v>
-      </c>
       <c r="AE21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K22">
+        <v>360</v>
       </c>
       <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" t="s">
         <v>75</v>
       </c>
-      <c r="M22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>76</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22">
+        <v>200</v>
+      </c>
+      <c r="W22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s">
         <v>77</v>
       </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22">
-        <v>200</v>
-      </c>
-      <c r="V22" t="s">
-        <v>38</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>78</v>
       </c>
-      <c r="X22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>101</v>
-      </c>
       <c r="AC22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD22" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K23">
+        <v>360</v>
       </c>
       <c r="L23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
         <v>80</v>
       </c>
-      <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
         <v>81</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23">
+        <v>200</v>
+      </c>
+      <c r="W23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s">
         <v>82</v>
       </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23">
-        <v>200</v>
-      </c>
-      <c r="V23" t="s">
-        <v>38</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
         <v>83</v>
       </c>
-      <c r="X23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>103</v>
-      </c>
       <c r="AC23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AD23" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AE23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24">
+        <v>103</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24">
         <v>7</v>
       </c>
-      <c r="R24" t="s">
-        <v>48</v>
-      </c>
       <c r="S24" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" t="s">
         <v>34</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>100</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>38</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>27</v>
       </c>
-      <c r="AD24" t="s">
-        <v>105</v>
-      </c>
       <c r="AE24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I25" t="s">
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25">
+        <v>360</v>
+      </c>
+      <c r="L25" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25" t="s">
+        <v>47</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25">
+        <v>100</v>
+      </c>
+      <c r="W25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s">
         <v>90</v>
       </c>
-      <c r="L25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>34</v>
-      </c>
-      <c r="T25">
-        <v>100</v>
-      </c>
-      <c r="V25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>93</v>
-      </c>
       <c r="AD25" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AE25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K26">
+        <v>360</v>
       </c>
       <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
+      <c r="AF26" t="s">
         <v>53</v>
       </c>
-      <c r="N26" t="s">
-        <v>55</v>
-      </c>
-      <c r="P26" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
-      </c>
-      <c r="R26" t="s">
-        <v>38</v>
-      </c>
-      <c r="S26" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="I27" t="s">
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="K27">
+        <v>360</v>
       </c>
       <c r="L27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s">
+        <v>56</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="AE27" t="s">
         <v>61</v>
       </c>
-      <c r="M27" t="s">
+      <c r="AF27" t="s">
         <v>61</v>
       </c>
-      <c r="N27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-      <c r="R27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" t="s">
-        <v>57</v>
-      </c>
-      <c r="T27">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28">
+        <v>360</v>
+      </c>
+      <c r="L28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28">
+        <v>200</v>
+      </c>
+      <c r="W28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S28" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28">
-        <v>200</v>
-      </c>
-      <c r="V28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>42</v>
-      </c>
       <c r="AE28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" ht="32" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29">
+        <v>360</v>
+      </c>
+      <c r="L29" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s">
         <v>127</v>
       </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" t="s">
-        <v>132</v>
-      </c>
-      <c r="M29" t="s">
-        <v>132</v>
-      </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q29">
+      <c r="U29">
         <v>2</v>
       </c>
-      <c r="R29" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" t="s">
-        <v>133</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>132</v>
-      </c>
       <c r="AE29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I30" t="s">
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K30">
+        <v>360</v>
       </c>
       <c r="L30" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" t="s">
         <v>70</v>
       </c>
-      <c r="M30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>71</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30">
+        <v>200</v>
+      </c>
+      <c r="X30" t="s">
         <v>72</v>
       </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30">
-        <v>200</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
         <v>73</v>
       </c>
-      <c r="X30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>99</v>
-      </c>
       <c r="AC30" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="AD30" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="AE30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K31">
+        <v>360</v>
       </c>
       <c r="L31" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31" t="s">
         <v>94</v>
       </c>
-      <c r="M31" t="s">
-        <v>94</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31">
+        <v>200</v>
+      </c>
+      <c r="W31" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31" t="s">
         <v>95</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Y31" t="s">
         <v>96</v>
       </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" t="s">
-        <v>34</v>
-      </c>
-      <c r="T31">
-        <v>200</v>
-      </c>
-      <c r="V31" t="s">
-        <v>38</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="AC31" t="s">
         <v>97</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AD31" t="s">
         <v>98</v>
       </c>
-      <c r="AB31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>94</v>
-      </c>
       <c r="AE31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I32" t="s">
+        <v>134</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K32">
+        <v>360</v>
       </c>
       <c r="L32" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
         <v>75</v>
       </c>
-      <c r="M32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
         <v>76</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32">
+        <v>200</v>
+      </c>
+      <c r="W32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s">
         <v>77</v>
       </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32">
-        <v>200</v>
-      </c>
-      <c r="V32" t="s">
-        <v>38</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
         <v>78</v>
       </c>
-      <c r="X32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>101</v>
-      </c>
       <c r="AC32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD32" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AE32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I33" t="s">
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K33">
+        <v>360</v>
       </c>
       <c r="L33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" t="s">
         <v>80</v>
       </c>
-      <c r="M33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
         <v>81</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33" t="s">
+        <v>47</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33">
+        <v>200</v>
+      </c>
+      <c r="W33" t="s">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s">
         <v>82</v>
       </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="R33" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33">
-        <v>200</v>
-      </c>
-      <c r="V33" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
         <v>83</v>
       </c>
-      <c r="X33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>103</v>
-      </c>
       <c r="AC33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AD33" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AE33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I34" t="s">
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K34">
+        <v>360</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s">
-        <v>105</v>
-      </c>
-      <c r="P34" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34">
+        <v>103</v>
+      </c>
+      <c r="N34" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34">
         <v>7</v>
       </c>
-      <c r="R34" t="s">
-        <v>48</v>
-      </c>
       <c r="S34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34" t="s">
         <v>34</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>100</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>38</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>54</v>
       </c>
-      <c r="AD34" t="s">
-        <v>105</v>
-      </c>
       <c r="AE34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I35" t="s">
+        <v>134</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35">
+        <v>360</v>
+      </c>
+      <c r="L35" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>106</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35">
+        <v>100</v>
+      </c>
+      <c r="W35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s">
         <v>90</v>
       </c>
-      <c r="L35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M35" t="s">
-        <v>107</v>
-      </c>
-      <c r="P35" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
-      <c r="R35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35">
-        <v>100</v>
-      </c>
-      <c r="V35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>93</v>
-      </c>
       <c r="AD35" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AE35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>134</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K36">
+        <v>360</v>
       </c>
       <c r="L36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36">
+        <v>9</v>
+      </c>
+      <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" t="s">
+        <v>56</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+      <c r="AE36" t="s">
         <v>53</v>
       </c>
-      <c r="M36" t="s">
+      <c r="AF36" t="s">
         <v>53</v>
       </c>
-      <c r="N36" t="s">
-        <v>55</v>
-      </c>
-      <c r="P36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q36">
-        <v>9</v>
-      </c>
-      <c r="R36" t="s">
-        <v>38</v>
-      </c>
-      <c r="S36" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36">
-        <v>10</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:32" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="K37">
+        <v>360</v>
       </c>
       <c r="L37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s">
+        <v>56</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="AE37" t="s">
         <v>61</v>
       </c>
-      <c r="M37" t="s">
+      <c r="AF37" t="s">
         <v>61</v>
       </c>
-      <c r="N37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q37">
-        <v>10</v>
-      </c>
-      <c r="R37" t="s">
-        <v>38</v>
-      </c>
-      <c r="S37" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AH37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C87885" xr:uid="{45ECB897-D682-FB43-9300-AED58FEB46B1}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C87885" xr:uid="{EBD296EE-FB1B-B74E-A8C7-EE97F65B4223}"/>
-    <hyperlink ref="N2" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C87885" xr:uid="{5890DF44-CFFC-E145-B248-9F5636F1440F}"/>
+    <hyperlink ref="O2" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C87885" xr:uid="{5890DF44-CFFC-E145-B248-9F5636F1440F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/curation/draft/collection/collection_specialization_EC.xlsx
+++ b/curation/draft/collection/collection_specialization_EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413A9B6-0D01-9541-BD4D-E0C1EDCB5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B5781-A599-454D-8268-87D4D84D1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Collection_EC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EC!$A$1:$AH$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_EC!$A$1:$AJ$37</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="142">
   <si>
     <t>package_date</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>categories</t>
+  </si>
+  <si>
+    <t>derivation_description</t>
+  </si>
+  <si>
+    <t>derived_variable</t>
   </si>
 </sst>
 </file>
@@ -855,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,16 +880,16 @@
     <col min="14" max="14" width="25.83203125" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
-    <col min="26" max="26" width="22" style="3" customWidth="1"/>
-    <col min="27" max="27" width="30.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" customWidth="1"/>
-    <col min="29" max="29" width="16.5" customWidth="1"/>
-    <col min="32" max="32" width="26" customWidth="1"/>
-    <col min="33" max="33" width="23" customWidth="1"/>
+    <col min="23" max="25" width="16.6640625" customWidth="1"/>
+    <col min="28" max="28" width="22" style="3" customWidth="1"/>
+    <col min="29" max="29" width="30.5" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="26" customWidth="1"/>
+    <col min="35" max="35" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,40 +960,46 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>109</v>
       </c>
@@ -1031,26 +1043,26 @@
       <c r="U2">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>109</v>
       </c>
@@ -1094,16 +1106,16 @@
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AE3" t="s">
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AG3" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1152,14 +1164,14 @@
       <c r="U4">
         <v>200</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1208,14 +1220,14 @@
       <c r="U5">
         <v>200</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1261,14 +1273,14 @@
       <c r="U6">
         <v>100</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1314,26 +1326,26 @@
       <c r="U7">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>114</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1382,14 +1394,14 @@
       <c r="U8">
         <v>10</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1438,14 +1450,14 @@
       <c r="U9">
         <v>5</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>53</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1494,14 +1506,14 @@
       <c r="U10">
         <v>10</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1550,14 +1562,14 @@
       <c r="U11">
         <v>5</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>61</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1603,14 +1615,14 @@
       <c r="U12">
         <v>100</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>68</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1659,20 +1671,20 @@
       <c r="U13">
         <v>200</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>72</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AG13" t="s">
         <v>69</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1721,20 +1733,20 @@
       <c r="U14">
         <v>200</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>77</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>78</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>74</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1783,20 +1795,20 @@
       <c r="U15">
         <v>200</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>82</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>83</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG15" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1842,26 +1854,26 @@
       <c r="U16">
         <v>1</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>35</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>114</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AG16" t="s">
         <v>84</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1907,14 +1919,14 @@
       <c r="U17">
         <v>200</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AG17" t="s">
         <v>86</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1972,17 +1984,17 @@
       <c r="W18" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>89</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG18" t="s">
         <v>41</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2037,14 +2049,14 @@
       <c r="U19">
         <v>2</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>126</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -2099,26 +2111,26 @@
       <c r="U20">
         <v>200</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" t="s">
         <v>73</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>97</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>124</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AG20" t="s">
         <v>69</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -2176,26 +2188,26 @@
       <c r="W21" t="s">
         <v>38</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>95</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>97</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
         <v>98</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AG21" t="s">
         <v>92</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -2253,26 +2265,26 @@
       <c r="W22" t="s">
         <v>38</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>77</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>78</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>99</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>100</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>74</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -2330,26 +2342,26 @@
       <c r="W23" t="s">
         <v>38</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>82</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>83</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>101</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>102</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AG23" t="s">
         <v>79</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2404,17 +2416,17 @@
       <c r="W24" t="s">
         <v>38</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>27</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>103</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -2469,20 +2481,20 @@
       <c r="W25" t="s">
         <v>38</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>90</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>91</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>105</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2537,14 +2549,14 @@
       <c r="U26">
         <v>10</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AG26" t="s">
         <v>53</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AH26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -2599,14 +2611,14 @@
       <c r="U27">
         <v>10</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AG27" t="s">
         <v>61</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AH27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -2664,17 +2676,17 @@
       <c r="W28" t="s">
         <v>38</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>89</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AG28" t="s">
         <v>41</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AH28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -2729,14 +2741,14 @@
       <c r="U29">
         <v>2</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AG29" t="s">
         <v>126</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AH29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -2791,26 +2803,26 @@
       <c r="U30">
         <v>200</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Z30" t="s">
         <v>72</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>73</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AE30" t="s">
         <v>97</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AF30" t="s">
         <v>124</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG30" t="s">
         <v>69</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AH30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -2868,26 +2880,26 @@
       <c r="W31" t="s">
         <v>38</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Z31" t="s">
         <v>95</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>96</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
         <v>97</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AF31" t="s">
         <v>98</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>92</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -2945,26 +2957,26 @@
       <c r="W32" t="s">
         <v>38</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Z32" t="s">
         <v>77</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
         <v>78</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AE32" t="s">
         <v>99</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>100</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AG32" t="s">
         <v>74</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AH32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -3022,26 +3034,26 @@
       <c r="W33" t="s">
         <v>38</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>82</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AA33" t="s">
         <v>83</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AE33" t="s">
         <v>101</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AF33" t="s">
         <v>102</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AG33" t="s">
         <v>79</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AH33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -3096,17 +3108,17 @@
       <c r="W34" t="s">
         <v>38</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>54</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AG34" t="s">
         <v>103</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AH34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -3161,20 +3173,20 @@
       <c r="W35" t="s">
         <v>38</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>90</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AF35" t="s">
         <v>91</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AG35" t="s">
         <v>105</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AH35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -3229,14 +3241,14 @@
       <c r="U36">
         <v>10</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AG36" t="s">
         <v>53</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AH36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -3291,15 +3303,15 @@
       <c r="U37">
         <v>10</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AG37" t="s">
         <v>61</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AH37" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AJ37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C87885" xr:uid="{45ECB897-D682-FB43-9300-AED58FEB46B1}"/>

--- a/curation/draft/collection/collection_specialization_EC.xlsx
+++ b/curation/draft/collection/collection_specialization_EC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B5781-A599-454D-8268-87D4D84D1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF6034-654E-44A6-AFEF-992D226A2B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_EC" sheetId="1" r:id="rId1"/>
@@ -863,33 +863,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="5"/>
-    <col min="8" max="8" width="38.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.1640625" customWidth="1"/>
-    <col min="13" max="13" width="26.5" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="5"/>
+    <col min="8" max="8" width="38.1328125" customWidth="1"/>
+    <col min="10" max="10" width="23.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="31.1328125" customWidth="1"/>
+    <col min="13" max="13" width="26.46484375" customWidth="1"/>
+    <col min="14" max="14" width="25.796875" customWidth="1"/>
+    <col min="16" max="16" width="20.796875" customWidth="1"/>
+    <col min="17" max="17" width="31.1328125" customWidth="1"/>
     <col min="23" max="25" width="16.6640625" customWidth="1"/>
     <col min="28" max="28" width="22" style="3" customWidth="1"/>
-    <col min="29" max="29" width="30.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="30.46484375" style="3" customWidth="1"/>
     <col min="30" max="30" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="31" max="31" width="16.46484375" customWidth="1"/>
     <col min="34" max="34" width="26" customWidth="1"/>
     <col min="35" max="35" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -999,7 +999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>109</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>109</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="J18" t="s">
         <v>131</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>360</v>
       </c>
       <c r="L18" t="s">
@@ -1994,7 +1994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="J19" t="s">
         <v>131</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>360</v>
       </c>
       <c r="L19" t="s">
@@ -2056,7 +2056,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="J20" t="s">
         <v>131</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>360</v>
       </c>
       <c r="L20" t="s">
@@ -2130,7 +2130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J21" t="s">
         <v>131</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>360</v>
       </c>
       <c r="L21" t="s">
@@ -2207,7 +2207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>39</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="J22" t="s">
         <v>131</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>360</v>
       </c>
       <c r="L22" t="s">
@@ -2284,7 +2284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="J23" t="s">
         <v>131</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>360</v>
       </c>
       <c r="L23" t="s">
@@ -2361,7 +2361,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="J24" t="s">
         <v>131</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>360</v>
       </c>
       <c r="L24" t="s">
@@ -2426,7 +2426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="J25" t="s">
         <v>131</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <v>360</v>
       </c>
       <c r="L25" t="s">
@@ -2494,7 +2494,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="J26" t="s">
         <v>131</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>360</v>
       </c>
       <c r="L26" t="s">
@@ -2556,7 +2556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="J27" t="s">
         <v>131</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>360</v>
       </c>
       <c r="L27" t="s">
@@ -2618,7 +2618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="J28" t="s">
         <v>132</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>360</v>
       </c>
       <c r="L28" t="s">
@@ -2686,7 +2686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="J29" t="s">
         <v>132</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <v>360</v>
       </c>
       <c r="L29" t="s">
@@ -2748,7 +2748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="J30" t="s">
         <v>132</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>360</v>
       </c>
       <c r="L30" t="s">
@@ -2822,7 +2822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="J31" t="s">
         <v>132</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <v>360</v>
       </c>
       <c r="L31" t="s">
@@ -2899,7 +2899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="J32" t="s">
         <v>132</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>360</v>
       </c>
       <c r="L32" t="s">
@@ -2976,7 +2976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="J33" t="s">
         <v>132</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>360</v>
       </c>
       <c r="L33" t="s">
@@ -3053,7 +3053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="J34" t="s">
         <v>132</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>360</v>
       </c>
       <c r="L34" t="s">
@@ -3118,7 +3118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="J35" t="s">
         <v>132</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>360</v>
       </c>
       <c r="L35" t="s">
@@ -3186,7 +3186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="J36" t="s">
         <v>132</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <v>360</v>
       </c>
       <c r="L36" t="s">
@@ -3248,7 +3248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="J37" t="s">
         <v>132</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>360</v>
       </c>
       <c r="L37" t="s">
